--- a/STUDIO/org.openl.rules.test/test-resources/functionality/EmptyArrays.xlsx
+++ b/STUDIO/org.openl.rules.test/test-resources/functionality/EmptyArrays.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="135">
   <si>
     <t>Spreadsheet SpreadsheetResult checkAnyTrue()</t>
   </si>
@@ -420,30 +420,6 @@
   </si>
   <si>
     <t>= max((Double[])null)</t>
-  </si>
-  <si>
-    <t>= xor(new boolean[] {true})</t>
-  </si>
-  <si>
-    <t>Test checkxor checkxorTest</t>
-  </si>
-  <si>
-    <t>Spreadsheet SpreadsheetResult checkxor()</t>
-  </si>
-  <si>
-    <t>= xor(new boolean[] {true, false, true})</t>
-  </si>
-  <si>
-    <t>= xor(new boolean[] {true, false})</t>
-  </si>
-  <si>
-    <t>= xor(new boolean[] {true, true})</t>
-  </si>
-  <si>
-    <t>= xor(new boolean[] {false})</t>
-  </si>
-  <si>
-    <t>= xor(new boolean[] {false, false})</t>
   </si>
 </sst>
 </file>
@@ -479,16 +455,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -795,7 +768,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:S67"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A43" workbookViewId="0">
       <selection activeCell="M76" sqref="M76"/>
     </sheetView>
   </sheetViews>
@@ -812,14 +785,14 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B3" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="5"/>
-      <c r="L3" s="5" t="s">
+      <c r="B3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="L3" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="M3" s="5"/>
+      <c r="M3" s="4"/>
     </row>
     <row r="4" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
@@ -847,19 +820,19 @@
       <c r="B6" t="s">
         <v>14</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="G6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
       <c r="L6" t="s">
         <v>14</v>
       </c>
-      <c r="Q6" s="5" t="s">
+      <c r="Q6" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="R6" s="5"/>
-      <c r="S6" s="5"/>
+      <c r="R6" s="4"/>
+      <c r="S6" s="4"/>
     </row>
     <row r="7" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
@@ -1182,14 +1155,14 @@
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C19" s="5"/>
-      <c r="L19" s="5" t="s">
+      <c r="C19" s="4"/>
+      <c r="L19" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="M19" s="5"/>
+      <c r="M19" s="4"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
@@ -1217,19 +1190,19 @@
       <c r="B22" t="s">
         <v>14</v>
       </c>
-      <c r="G22" s="5" t="s">
+      <c r="G22" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
       <c r="L22" t="s">
         <v>14</v>
       </c>
-      <c r="Q22" s="5" t="s">
+      <c r="Q22" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="R22" s="5"/>
-      <c r="S22" s="5"/>
+      <c r="R22" s="4"/>
+      <c r="S22" s="4"/>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
@@ -1553,14 +1526,14 @@
       </c>
     </row>
     <row r="37" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B37" s="5" t="s">
+      <c r="B37" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C37" s="5"/>
-      <c r="L37" s="5" t="s">
+      <c r="C37" s="4"/>
+      <c r="L37" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="M37" s="5"/>
+      <c r="M37" s="4"/>
     </row>
     <row r="38" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
@@ -1588,19 +1561,19 @@
       <c r="B40" t="s">
         <v>14</v>
       </c>
-      <c r="G40" s="5" t="s">
+      <c r="G40" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="H40" s="5"/>
-      <c r="I40" s="5"/>
+      <c r="H40" s="4"/>
+      <c r="I40" s="4"/>
       <c r="L40" t="s">
         <v>14</v>
       </c>
-      <c r="Q40" s="5" t="s">
+      <c r="Q40" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="R40" s="5"/>
-      <c r="S40" s="5"/>
+      <c r="R40" s="4"/>
+      <c r="S40" s="4"/>
     </row>
     <row r="41" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
@@ -1923,14 +1896,14 @@
       </c>
     </row>
     <row r="54" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B54" s="5" t="s">
+      <c r="B54" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="C54" s="5"/>
-      <c r="L54" s="5" t="s">
+      <c r="C54" s="4"/>
+      <c r="L54" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="M54" s="5"/>
+      <c r="M54" s="4"/>
     </row>
     <row r="55" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
@@ -1958,19 +1931,19 @@
       <c r="B57" t="s">
         <v>14</v>
       </c>
-      <c r="G57" s="5" t="s">
+      <c r="G57" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="H57" s="5"/>
-      <c r="I57" s="5"/>
+      <c r="H57" s="4"/>
+      <c r="I57" s="4"/>
       <c r="L57" t="s">
         <v>14</v>
       </c>
-      <c r="Q57" s="5" t="s">
+      <c r="Q57" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="R57" s="5"/>
-      <c r="S57" s="5"/>
+      <c r="R57" s="4"/>
+      <c r="S57" s="4"/>
     </row>
     <row r="58" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
@@ -2317,10 +2290,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C4:J33"/>
+  <dimension ref="C4:J22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K26" sqref="K26"/>
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2334,10 +2307,10 @@
   </cols>
   <sheetData>
     <row r="4" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="D4" s="5"/>
+      <c r="D4" s="4"/>
     </row>
     <row r="5" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
@@ -2356,11 +2329,11 @@
       <c r="C7" t="s">
         <v>125</v>
       </c>
-      <c r="H7" s="5" t="s">
+      <c r="H7" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
     </row>
     <row r="8" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
@@ -2425,10 +2398,10 @@
       <c r="J11" s="2"/>
     </row>
     <row r="15" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="D15" s="5"/>
+      <c r="D15" s="4"/>
     </row>
     <row r="16" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
@@ -2447,11 +2420,11 @@
       <c r="C18" t="s">
         <v>125</v>
       </c>
-      <c r="H18" s="5" t="s">
+      <c r="H18" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
     </row>
     <row r="19" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
@@ -2515,135 +2488,12 @@
       </c>
       <c r="J22" s="2"/>
     </row>
-    <row r="26" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C26" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="D26" s="5"/>
-    </row>
-    <row r="27" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C27" t="s">
-        <v>1</v>
-      </c>
-      <c r="D27" t="s">
-        <v>2</v>
-      </c>
-      <c r="H27" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="I27" s="5"/>
-      <c r="J27" s="5"/>
-    </row>
-    <row r="28" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C28" t="s">
-        <v>3</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="H28" t="s">
-        <v>21</v>
-      </c>
-      <c r="I28" t="s">
-        <v>29</v>
-      </c>
-      <c r="J28" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C29" t="s">
-        <v>4</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="H29" t="s">
-        <v>22</v>
-      </c>
-      <c r="I29" t="s">
-        <v>29</v>
-      </c>
-      <c r="J29" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C30" t="s">
-        <v>6</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="H30" t="s">
-        <v>23</v>
-      </c>
-      <c r="I30" t="s">
-        <v>29</v>
-      </c>
-      <c r="J30" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C31" t="s">
-        <v>8</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="H31" t="s">
-        <v>24</v>
-      </c>
-      <c r="I31" t="s">
-        <v>29</v>
-      </c>
-      <c r="J31" s="4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C32" t="s">
-        <v>9</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="H32" t="s">
-        <v>25</v>
-      </c>
-      <c r="I32" t="s">
-        <v>29</v>
-      </c>
-      <c r="J32" s="4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C33" t="s">
-        <v>12</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="H33" t="s">
-        <v>26</v>
-      </c>
-      <c r="I33" t="s">
-        <v>29</v>
-      </c>
-      <c r="J33" s="3" t="b">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="H27:J27"/>
+  <mergeCells count="4">
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="H7:J7"/>
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="H18:J18"/>
-    <mergeCell ref="C26:D26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
